--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1064.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1064.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
+        <v>1.190981030464172</v>
+      </c>
+      <c r="B1">
+        <v>2.579953193664551</v>
+      </c>
+      <c r="C1">
         <v>-1</v>
       </c>
-      <c r="B1">
-        <v>3.304253831461411</v>
-      </c>
-      <c r="C1">
-        <v>1.798847258653003</v>
-      </c>
       <c r="D1">
-        <v>1.414243408574007</v>
+        <v>2.199592351913452</v>
       </c>
       <c r="E1">
-        <v>1.28952833179824</v>
+        <v>1.180020093917847</v>
       </c>
     </row>
   </sheetData>
